--- a/Course4/CourseWork/Ostapenko/ball_Pas_Ostapenko.xlsx
+++ b/Course4/CourseWork/Ostapenko/ball_Pas_Ostapenko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliaksandr_Astapenk1\Documents\Work\Studieren\Course4\CourseWork\Ostapenko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F492BC-B79A-499C-A1B2-7FE397BE3613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69AD2D8-13E9-4AA9-A2C9-A4CAF959E5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3630" yWindow="-13695" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,11 +812,11 @@
         <v>30</v>
       </c>
       <c r="G15" s="3">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="H15" s="3">
         <f>IF(E15*G15&gt;F15,F15,E15*G15)</f>
-        <v>30</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -858,11 +858,11 @@
         <v>30</v>
       </c>
       <c r="G17" s="3">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="3">
         <f>SUM(H15:H18)</f>
-        <v>76</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="3">
         <f>IF(ROUNDUP((H15+H16+H17)/8,0)&gt;9,9,ROUNDUP((H15+H16+H17)/8,0))+IF(H18&gt;0,1,0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
